--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_569.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_569.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33012-d5002973-Reviews-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>46</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Oceana-Boutique-Hotel.h10584880.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_569.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_569.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,573 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r580855611-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>33012</t>
+  </si>
+  <si>
+    <t>5002973</t>
+  </si>
+  <si>
+    <t>580855611</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>Nothing changed!</t>
+  </si>
+  <si>
+    <t>I just finished watching Hotel Impossible and then went to a few sites on line to see what changes have been made since the show. From all the pictures on line, nothing has changed. The bedspreads are so old I remember that style from a Holiday Inn at which I worked back in the 80's. Obviously nothing has been done to improve the property since the show. How do they expect to keep up with rooms that look like something from the 60's and 70's.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r559680666-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>559680666</t>
+  </si>
+  <si>
+    <t>02/10/2018</t>
+  </si>
+  <si>
+    <t>One star is to good for this joke of a hotel</t>
+  </si>
+  <si>
+    <t>I've stayed in budget hotels all over the world.  News flash, you get what you pay for. I'm happy staying in a cheap room with a lack of amenities.  And believe me this place definitely lacked basic amenities.  No hangers in the closet.  A coffee maker with no coffee.  No drawers for clothing.  All good though.  I expected it to be pretty lackluster.  What I didn't expect was to be locked out of my room on my second night, because the electronic lock was not recognizing my key.  At 11:30 in the evening this isn't something you want to deal with.  I left a message at the only number listed for the hotel and sent an email requesting assistance.  After waiting 45 minutes with no response, I drove to a friends house about 30 miles away and slept on his couch.  The next day I drove back to the hotel and requested a refund for the night I was locked out, and canceled the room I had paid for that night.  They told me they would refund me for 2 of my 3 night stay. Later that evening I received an email stating that they had refunded me for 1 night.  The night that I canceled.  No mention of the night I was locked out of my room.  Emailed them and never heard anything back.STAY AWAY FROM THIS PLACE!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>I've stayed in budget hotels all over the world.  News flash, you get what you pay for. I'm happy staying in a cheap room with a lack of amenities.  And believe me this place definitely lacked basic amenities.  No hangers in the closet.  A coffee maker with no coffee.  No drawers for clothing.  All good though.  I expected it to be pretty lackluster.  What I didn't expect was to be locked out of my room on my second night, because the electronic lock was not recognizing my key.  At 11:30 in the evening this isn't something you want to deal with.  I left a message at the only number listed for the hotel and sent an email requesting assistance.  After waiting 45 minutes with no response, I drove to a friends house about 30 miles away and slept on his couch.  The next day I drove back to the hotel and requested a refund for the night I was locked out, and canceled the room I had paid for that night.  They told me they would refund me for 2 of my 3 night stay. Later that evening I received an email stating that they had refunded me for 1 night.  The night that I canceled.  No mention of the night I was locked out of my room.  Emailed them and never heard anything back.STAY AWAY FROM THIS PLACE!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r544661000-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>544661000</t>
+  </si>
+  <si>
+    <t>12/02/2017</t>
+  </si>
+  <si>
+    <t>A joke of a motel, flee this place</t>
+  </si>
+  <si>
+    <t>Motel sign clearly visible on a main street but blocks away from the motel.
+Opened my rooms door, hit the light switch got nothing. Yes there were several lights in my room but none were easy to turn on. Luckily the bathroom light switch worked I had some light. I was fortunate that there was still someone in the office to help me turn the lights on. (office closes at 7pm)
+Nice heater thermostat on the wall BUT it didn’t turn on the heater in the middle of the room.
+Very big flat screen tv., frig. &amp; microwave in the room. yippie! best thing about the room.
+Rustic, I guess They're trying.
+Coffee, you like coffee well NO coffee service here in the room or closed office.
+Password given for Internet connection but it would NOT work.  I found out later I was lucky it didn’t work; Ran into another person staying at the inn he told me his computer and phone were seriously HACKED using the hotels Internet connection.
+The room is reasonably clean except the waded up hand towel in the back of the shelf in the bathroom. Probably to high for the cleaning person to see.
+If you're picky or used to services most motels or hotels commonly provide you won't like staying here.
+You are gonna love this, I met the person with the Hacked phone and computer because he locked himself out of the room...Motel sign clearly visible on a main street but blocks away from the motel.Opened my rooms door, hit the light switch got nothing. Yes there were several lights in my room but none were easy to turn on. Luckily the bathroom light switch worked I had some light. I was fortunate that there was still someone in the office to help me turn the lights on. (office closes at 7pm)Nice heater thermostat on the wall BUT it didn’t turn on the heater in the middle of the room.Very big flat screen tv., frig. &amp; microwave in the room. yippie! best thing about the room.Rustic, I guess They're trying.Coffee, you like coffee well NO coffee service here in the room or closed office.Password given for Internet connection but it would NOT work.  I found out later I was lucky it didn’t work; Ran into another person staying at the inn he told me his computer and phone were seriously HACKED using the hotels Internet connection.The room is reasonably clean except the waded up hand towel in the back of the shelf in the bathroom. Probably to high for the cleaning person to see.If you're picky or used to services most motels or hotels commonly provide you won't like staying here.You are gonna love this, I met the person with the Hacked phone and computer because he locked himself out of the room at 8 am and there is NO staff on site until 11am, I let him in my room for awhile but had to leave and put this stocking footed person out. You call their number posted and they tell you the office hours. What a joke of a motel, one has to be disparate to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Motel sign clearly visible on a main street but blocks away from the motel.
+Opened my rooms door, hit the light switch got nothing. Yes there were several lights in my room but none were easy to turn on. Luckily the bathroom light switch worked I had some light. I was fortunate that there was still someone in the office to help me turn the lights on. (office closes at 7pm)
+Nice heater thermostat on the wall BUT it didn’t turn on the heater in the middle of the room.
+Very big flat screen tv., frig. &amp; microwave in the room. yippie! best thing about the room.
+Rustic, I guess They're trying.
+Coffee, you like coffee well NO coffee service here in the room or closed office.
+Password given for Internet connection but it would NOT work.  I found out later I was lucky it didn’t work; Ran into another person staying at the inn he told me his computer and phone were seriously HACKED using the hotels Internet connection.
+The room is reasonably clean except the waded up hand towel in the back of the shelf in the bathroom. Probably to high for the cleaning person to see.
+If you're picky or used to services most motels or hotels commonly provide you won't like staying here.
+You are gonna love this, I met the person with the Hacked phone and computer because he locked himself out of the room...Motel sign clearly visible on a main street but blocks away from the motel.Opened my rooms door, hit the light switch got nothing. Yes there were several lights in my room but none were easy to turn on. Luckily the bathroom light switch worked I had some light. I was fortunate that there was still someone in the office to help me turn the lights on. (office closes at 7pm)Nice heater thermostat on the wall BUT it didn’t turn on the heater in the middle of the room.Very big flat screen tv., frig. &amp; microwave in the room. yippie! best thing about the room.Rustic, I guess They're trying.Coffee, you like coffee well NO coffee service here in the room or closed office.Password given for Internet connection but it would NOT work.  I found out later I was lucky it didn’t work; Ran into another person staying at the inn he told me his computer and phone were seriously HACKED using the hotels Internet connection.The room is reasonably clean except the waded up hand towel in the back of the shelf in the bathroom. Probably to high for the cleaning person to see.If you're picky or used to services most motels or hotels commonly provide you won't like staying here.You are gonna love this, I met the person with the Hacked phone and computer because he locked himself out of the room at 8 am and there is NO staff on site until 11am, I let him in my room for awhile but had to leave and put this stocking footed person out. You call their number posted and they tell you the office hours. What a joke of a motel, one has to be disparate to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r498891681-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>498891681</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>Never to book with this establishment - Terrible !!</t>
+  </si>
+  <si>
+    <t>I am absolutely disgusted and extremely disappointed by this establishment. 
+I can see why their rating is low on here.
+On the 3rd of July we arrived at the hotel and we had booked our hotel on the May 23rd already so they had more than enough advance booking for me and my family. 
+I booked a 2 bedroom as there were 5 of us traveling. I had booked through Agoda website and my booking confirmation and receipt states I had booked a 2 bedroom executive suite. 
+I arrived at the hotel to be told they had booked my room with a single bed (queen) - of course we cannot stay in a 1 bedroom. As it's 4th of July weekend they were fully booked and told us there is nothing we can do for you.
+They tried to blame Agoda for this mistake that they have made... 
+It seems they did not read their emails from agoda and it had become our problem. All Agoda's documentation and emails i have states the correct room details. 
+I would assume our 2 bedroom was used for someone else and now my family and I had to find alternative plans on the busiest weekend of the year.. 
+We had just driven all the way from yosemite and of course were tired. 
+I cannot believe the service I received from this establishment. The inconvenience that this has caused for my family and I...I am absolutely disgusted and extremely disappointed by this establishment. I can see why their rating is low on here.On the 3rd of July we arrived at the hotel and we had booked our hotel on the May 23rd already so they had more than enough advance booking for me and my family. I booked a 2 bedroom as there were 5 of us traveling. I had booked through Agoda website and my booking confirmation and receipt states I had booked a 2 bedroom executive suite. I arrived at the hotel to be told they had booked my room with a single bed (queen) - of course we cannot stay in a 1 bedroom. As it's 4th of July weekend they were fully booked and told us there is nothing we can do for you.They tried to blame Agoda for this mistake that they have made... It seems they did not read their emails from agoda and it had become our problem. All Agoda's documentation and emails i have states the correct room details. I would assume our 2 bedroom was used for someone else and now my family and I had to find alternative plans on the busiest weekend of the year.. We had just driven all the way from yosemite and of course were tired. I cannot believe the service I received from this establishment. The inconvenience that this has caused for my family and I is outrages and absolutely unacceptable. The fact that they did not even try to assist us in anyway shows me what this hotel stands for and how they value it's customers..I will never be visiting this establishment and I urge you not to either.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I am absolutely disgusted and extremely disappointed by this establishment. 
+I can see why their rating is low on here.
+On the 3rd of July we arrived at the hotel and we had booked our hotel on the May 23rd already so they had more than enough advance booking for me and my family. 
+I booked a 2 bedroom as there were 5 of us traveling. I had booked through Agoda website and my booking confirmation and receipt states I had booked a 2 bedroom executive suite. 
+I arrived at the hotel to be told they had booked my room with a single bed (queen) - of course we cannot stay in a 1 bedroom. As it's 4th of July weekend they were fully booked and told us there is nothing we can do for you.
+They tried to blame Agoda for this mistake that they have made... 
+It seems they did not read their emails from agoda and it had become our problem. All Agoda's documentation and emails i have states the correct room details. 
+I would assume our 2 bedroom was used for someone else and now my family and I had to find alternative plans on the busiest weekend of the year.. 
+We had just driven all the way from yosemite and of course were tired. 
+I cannot believe the service I received from this establishment. The inconvenience that this has caused for my family and I...I am absolutely disgusted and extremely disappointed by this establishment. I can see why their rating is low on here.On the 3rd of July we arrived at the hotel and we had booked our hotel on the May 23rd already so they had more than enough advance booking for me and my family. I booked a 2 bedroom as there were 5 of us traveling. I had booked through Agoda website and my booking confirmation and receipt states I had booked a 2 bedroom executive suite. I arrived at the hotel to be told they had booked my room with a single bed (queen) - of course we cannot stay in a 1 bedroom. As it's 4th of July weekend they were fully booked and told us there is nothing we can do for you.They tried to blame Agoda for this mistake that they have made... It seems they did not read their emails from agoda and it had become our problem. All Agoda's documentation and emails i have states the correct room details. I would assume our 2 bedroom was used for someone else and now my family and I had to find alternative plans on the busiest weekend of the year.. We had just driven all the way from yosemite and of course were tired. I cannot believe the service I received from this establishment. The inconvenience that this has caused for my family and I is outrages and absolutely unacceptable. The fact that they did not even try to assist us in anyway shows me what this hotel stands for and how they value it's customers..I will never be visiting this establishment and I urge you not to either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r495664944-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>495664944</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t>Terrible hotel. Don't stay here</t>
+  </si>
+  <si>
+    <t>Don't stay here. Not a "boutique " hotel. Drunks. Shouting and arguing. Frightening. Terrible customer service. No communication. Apart from emails which is no good when you're not from the US and you're lost up a mountain. Dark and dingy. Dirty. Run down There are plenty of far nicer hotels near byParking was off road if you could squeeze into the grotty car park</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r493399917-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>493399917</t>
+  </si>
+  <si>
+    <t>06/15/2017</t>
+  </si>
+  <si>
+    <t>Affordable and clean. Great location!</t>
+  </si>
+  <si>
+    <t>For the price, this was a great place to stay. Walking distance to everything and everyone was very accommodating.  We could not get anywhere near this location for under $400 a night!  Would definitely stay there again. If your going to spend a lot of time in your room, it may not be for you, we never even turned on the tv!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r394894010-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>394894010</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>Aweful</t>
+  </si>
+  <si>
+    <t>I walked into my room and it smelled like a 5 gallon bucket full of cigarette butts. Not to mention being at least 90 degrees in my room because they have no air conditioning. They charged me well over $100 a night and similar hotels in the area have swimming pools air conditionings and full continental breakfast. I would not stay here if they gave me a room for free</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r392098544-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>392098544</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>worst experience</t>
+  </si>
+  <si>
+    <t>Worst experience I have ever had. The office was never open during office hours, the front desk couldn't do anything, she wouldn't even give me a receipt upon check in. Kept referring me to corporate office, who were also unreachable. Rooms were filthy, no air flow, ended up having to dispute the charge through my bank after trying 5 days to talk to someone at the hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r364758493-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>364758493</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>The hotel we usually stay at was full and everyone in town was booked except this place, and we now know why, it was unsafe, dirty and straight disgusting.  Run away to the next town up before considering renting here.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r345842436-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>345842436</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>Ok for a nights sleep</t>
+  </si>
+  <si>
+    <t>They close at 9 pm, arrived 5 minutes before and had to beg them to let us get a room. Stand up shower, ok bed, no sign of bugs! Hard tile floors, ok for getting a nights sleep. Not luxury by any means, kitchenette was nice, some utensils and skillet includedMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Oceana Hotel B, Front Office Manager at Oceana Boutique Hotel, responded to this reviewResponded February 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2016</t>
+  </si>
+  <si>
+    <t>They close at 9 pm, arrived 5 minutes before and had to beg them to let us get a room. Stand up shower, ok bed, no sign of bugs! Hard tile floors, ok for getting a nights sleep. Not luxury by any means, kitchenette was nice, some utensils and skillet includedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r331430895-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>331430895</t>
+  </si>
+  <si>
+    <t>12/08/2015</t>
+  </si>
+  <si>
+    <t>NOTHING WRONG HERE</t>
+  </si>
+  <si>
+    <t>Saw this on booking.com  The night I was there: $62A very bare bones place. But clean &amp; comfortable. No frills. No phone, no in rooom coffee. no vending machines. But more personalized recognition. The managers acknowledged me by name., and very genuine about it. The more longer-term rentals with Kitchenettes/ living rooms, I'm sure "have more to offer" as this is more of a extended stay/beach vacation rental, than lets say a Motel. I had a standard room (#104)  very basic, big screen TV, private bathroom.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Saw this on booking.com  The night I was there: $62A very bare bones place. But clean &amp; comfortable. No frills. No phone, no in rooom coffee. no vending machines. But more personalized recognition. The managers acknowledged me by name., and very genuine about it. The more longer-term rentals with Kitchenettes/ living rooms, I'm sure "have more to offer" as this is more of a extended stay/beach vacation rental, than lets say a Motel. I had a standard room (#104)  very basic, big screen TV, private bathroom.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r328811664-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>328811664</t>
+  </si>
+  <si>
+    <t>11/24/2015</t>
+  </si>
+  <si>
+    <t>The worst!</t>
+  </si>
+  <si>
+    <t>I booked with this hotel on booking.com for 5 nights. I couldn't make it and canceled well within 24 hours. The hotel manager was MIA. I got multiple numbers from the "manager of the location" but not someone who could do refunds. I had to disputed through MasterCard. Worst customer service ever. Don't stay here !MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>I booked with this hotel on booking.com for 5 nights. I couldn't make it and canceled well within 24 hours. The hotel manager was MIA. I got multiple numbers from the "manager of the location" but not someone who could do refunds. I had to disputed through MasterCard. Worst customer service ever. Don't stay here !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r306517912-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>306517912</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>GROSS MISREPRESENTATION Horrible customer service, charged for service not rendered.</t>
+  </si>
+  <si>
+    <t>Do Not Stay!!Photos and conversation for condo Selling LIES.  We came for a family day at the beach and over night stay with grandpa and the kids. Showed up to condo with beach view 1107 Buena Vista, San Clemente. The building was run down and unsafe for a family: upon exterior examination screens missing from the windows, a man standing in adjacent building rubbing his scrotum, trash in common area, dirty exterior doors, etc.   Not safe and disgusting. Horrible customer service and charged for service not rendered. GROSS MISREPRESENTATION. Need to retrieve keys at a separate location Oceana Boutique, which has terrible reviews as well.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r305945552-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>305945552</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>Fraud!!</t>
+  </si>
+  <si>
+    <t>I cancelled my reservation within 7 minutes through booking.com only to have Oceana charge my card as a no call no show. They are shady business to say the least. Owner can only be contacted via email, no customer service ect. Luckily Booking.com provided me with all of the documentation that my reservation had in fact been cancelled and are resolving the issue through Visa. Beware of this business!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r301856058-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>301856058</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>owner needs a class in customer service</t>
+  </si>
+  <si>
+    <t>I had unauthorized charges to my card. I was given the owners phone number to resolve this. She does not answer calls. I was told to text her. SERIOUSLY, what professional business owner handles matters through texting?! I sent a text telling her my problem. I was told I would be receiving a phone call shortly. That call never came. The charge was nearly 1000.00$. After reading the reviews of this place it became apparent the owner does not act in a professional manner. She is very combative in her response to the problems the people post. Her customer service is terrible. She does not try to resolve problems, just gets nasty and rude. She really needs a  course in public relations. Lady this is a world of internet. People base their decisions to stay on the reviews they read. You may blow off these people and say you don't care about their satisfaction because you will fill up eventually. At some point you wont. You are only going to have the low life losers stay. Good riddance.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had unauthorized charges to my card. I was given the owners phone number to resolve this. She does not answer calls. I was told to text her. SERIOUSLY, what professional business owner handles matters through texting?! I sent a text telling her my problem. I was told I would be receiving a phone call shortly. That call never came. The charge was nearly 1000.00$. After reading the reviews of this place it became apparent the owner does not act in a professional manner. She is very combative in her response to the problems the people post. Her customer service is terrible. She does not try to resolve problems, just gets nasty and rude. She really needs a  course in public relations. Lady this is a world of internet. People base their decisions to stay on the reviews they read. You may blow off these people and say you don't care about their satisfaction because you will fill up eventually. At some point you wont. You are only going to have the low life losers stay. Good riddance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r295383494-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>295383494</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>A week's vacation at the beach for a family</t>
+  </si>
+  <si>
+    <t>The manager Lucky was the ONLY saving grace for our stay here. This is a short term living building where visitors are not catered to or seems even desired but they will book you for your money.    Ads are misleading and guest service is a joke. Free  wifi is sketchy.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r289329782-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>289329782</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Weekend Get away</t>
+  </si>
+  <si>
+    <t>Weekend get away to San Clemente by metrolink. Took Metro down to Oceanside than back up to San Clemente. What a hike from the pier to the hotel, But was quaint and old but we got the executive suite which was large like a 1 bedroom apartment with a full kitchen. Lucky was very nice and we were walking distance to the shops which was nice. Just be prepared for hike up the hill or take a taxi. Just remember OLD but clean and quite and peace had patio set in the shade was very nice.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r288293578-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>288293578</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>In a word, a dump</t>
+  </si>
+  <si>
+    <t>In a word, a dump. If you like dirty, smelly rooms, other people’s garbage and dilapidated furniture, look no further! 
+This place bore little resemblance to the photos or description. Our first impression was the stale, musty smell of old upholstery. Floors were dirty with pet hair, which is odd for a place that supposedly doesn’t allow pets. The furniture was old, smelly and stained, making you want to get a tetanus shot from just sitting on it. I filled a trash bag with old food left in the refrigerator and there was mold growing in the shower and shower curtain. The description stated there was a sofa bed and futon, but there was no futon. We were instead given an air mattress that looked as if it were Korean war surplus, and of course the air leaked out in the middle of the night, had to make a bed out of nasty sofa cushions for my girlfriend’s daughter. We left after the first night even though we booked (and paid for) two nights. The “concierge” was a nice enough fellow and to his credit, his incompetence seemed more a result of cluelessness than ill will or apathy. Once we received the key to the room, however, he managed to make himself scarce. Messages and phone calls to the owner went unanswered. I’ve stayed in places in the third world that were much cleaner and nicer. This place needs a...In a word, a dump. If you like dirty, smelly rooms, other people’s garbage and dilapidated furniture, look no further! This place bore little resemblance to the photos or description. Our first impression was the stale, musty smell of old upholstery. Floors were dirty with pet hair, which is odd for a place that supposedly doesn’t allow pets. The furniture was old, smelly and stained, making you want to get a tetanus shot from just sitting on it. I filled a trash bag with old food left in the refrigerator and there was mold growing in the shower and shower curtain. The description stated there was a sofa bed and futon, but there was no futon. We were instead given an air mattress that looked as if it were Korean war surplus, and of course the air leaked out in the middle of the night, had to make a bed out of nasty sofa cushions for my girlfriend’s daughter. We left after the first night even though we booked (and paid for) two nights. The “concierge” was a nice enough fellow and to his credit, his incompetence seemed more a result of cluelessness than ill will or apathy. Once we received the key to the room, however, he managed to make himself scarce. Messages and phone calls to the owner went unanswered. I’ve stayed in places in the third world that were much cleaner and nicer. This place needs a lot of money and an owner that cares about it in order to bring it up to standard.MoreShow less</t>
+  </si>
+  <si>
+    <t>In a word, a dump. If you like dirty, smelly rooms, other people’s garbage and dilapidated furniture, look no further! 
+This place bore little resemblance to the photos or description. Our first impression was the stale, musty smell of old upholstery. Floors were dirty with pet hair, which is odd for a place that supposedly doesn’t allow pets. The furniture was old, smelly and stained, making you want to get a tetanus shot from just sitting on it. I filled a trash bag with old food left in the refrigerator and there was mold growing in the shower and shower curtain. The description stated there was a sofa bed and futon, but there was no futon. We were instead given an air mattress that looked as if it were Korean war surplus, and of course the air leaked out in the middle of the night, had to make a bed out of nasty sofa cushions for my girlfriend’s daughter. We left after the first night even though we booked (and paid for) two nights. The “concierge” was a nice enough fellow and to his credit, his incompetence seemed more a result of cluelessness than ill will or apathy. Once we received the key to the room, however, he managed to make himself scarce. Messages and phone calls to the owner went unanswered. I’ve stayed in places in the third world that were much cleaner and nicer. This place needs a...In a word, a dump. If you like dirty, smelly rooms, other people’s garbage and dilapidated furniture, look no further! This place bore little resemblance to the photos or description. Our first impression was the stale, musty smell of old upholstery. Floors were dirty with pet hair, which is odd for a place that supposedly doesn’t allow pets. The furniture was old, smelly and stained, making you want to get a tetanus shot from just sitting on it. I filled a trash bag with old food left in the refrigerator and there was mold growing in the shower and shower curtain. The description stated there was a sofa bed and futon, but there was no futon. We were instead given an air mattress that looked as if it were Korean war surplus, and of course the air leaked out in the middle of the night, had to make a bed out of nasty sofa cushions for my girlfriend’s daughter. We left after the first night even though we booked (and paid for) two nights. The “concierge” was a nice enough fellow and to his credit, his incompetence seemed more a result of cluelessness than ill will or apathy. Once we received the key to the room, however, he managed to make himself scarce. Messages and phone calls to the owner went unanswered. I’ve stayed in places in the third world that were much cleaner and nicer. This place needs a lot of money and an owner that cares about it in order to bring it up to standard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r270960352-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>270960352</t>
+  </si>
+  <si>
+    <t>05/09/2015</t>
+  </si>
+  <si>
+    <t>Like a third world country in the heart of San Clemente!</t>
+  </si>
+  <si>
+    <t>Ok... If you are short on time and want to cut to the chase, do NOT stay here.
+Allow me to explain....
+My girlfriend booked us a room here online. We wanted a cheaper place to stay for a night and figured it would suffice. Plus, she had visited some site which had decent to nice reviews about people's previous stays, so all seemed ok.
+Prior to arriving she realized her card had been double-billed. So she called to get one charge reversed, and spoke with 'Savannah' who assured her she would have a confirmation email showing proof of refund. By the end of next day  This email never showed up. Savannah never followed up. Refund was never issued. Room was pre-paid. Twice.
+Upon arriving, we were greeted by a guy named 'Lucky' who was the hotel manager. He was snappily dressed in doctor's scrubs and had us come into the messy 'office,' which is also where his bed is and his dog called home. After 40-60 bad jokes, he checked us in and when we asked about getting a refund on being double-billed, he jotted down Savannah's number and said we'd have to call her directly. (So far, the service should have been our red flag to run). 
+We got to the room, escorted.by Lucky, and just as he was unlocking the door, he proclaimed "you guys really have a great room here,".  The door opens into a third...Ok... If you are short on time and want to cut to the chase, do NOT stay here.Allow me to explain....My girlfriend booked us a room here online. We wanted a cheaper place to stay for a night and figured it would suffice. Plus, she had visited some site which had decent to nice reviews about people's previous stays, so all seemed ok.Prior to arriving she realized her card had been double-billed. So she called to get one charge reversed, and spoke with 'Savannah' who assured her she would have a confirmation email showing proof of refund. By the end of next day  This email never showed up. Savannah never followed up. Refund was never issued. Room was pre-paid. Twice.Upon arriving, we were greeted by a guy named 'Lucky' who was the hotel manager. He was snappily dressed in doctor's scrubs and had us come into the messy 'office,' which is also where his bed is and his dog called home. After 40-60 bad jokes, he checked us in and when we asked about getting a refund on being double-billed, he jotted down Savannah's number and said we'd have to call her directly. (So far, the service should have been our red flag to run). We got to the room, escorted.by Lucky, and just as he was unlocking the door, he proclaimed "you guys really have a great room here,".  The door opens into a third world country. I was surprised the floors weren't dirt. Then I thought...if this is a great room, I'd hate to see the not-great rooms.We could hear the couple next door to us talking through the wall. She really thought her husband ought to get a job. He disagreed.The bed was ancient. There was some type of plastic crunchy barrier under the sheets. When we finally pulled back the sheet and comforter to climb into bed, my girlfriend pulls out a dirty old men's tubesock from under the sheets and says "I hope this is your sock!"   Nope. Maybe Lucky's?We were too tired and it was too late to pound on Lucky's door about this. So next morning we told him and he made a few jokes about us mixing his laundry with our sheets, then gave us a sad face, just as his phone rang and he walked off. Problem solved I guess....The shower curtain had black mildew on it. The caulk in the shower was moldy and gross. Pubes on the sink when we arrived. We are freaked out about possibly having bedbugs or lice at this point...so far no signs but stay tuned...Stay the hell away from this 'boutique' hotel. We were duped...Oh, and it's been 8 days and still no refund on the double-charge.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Ok... If you are short on time and want to cut to the chase, do NOT stay here.
+Allow me to explain....
+My girlfriend booked us a room here online. We wanted a cheaper place to stay for a night and figured it would suffice. Plus, she had visited some site which had decent to nice reviews about people's previous stays, so all seemed ok.
+Prior to arriving she realized her card had been double-billed. So she called to get one charge reversed, and spoke with 'Savannah' who assured her she would have a confirmation email showing proof of refund. By the end of next day  This email never showed up. Savannah never followed up. Refund was never issued. Room was pre-paid. Twice.
+Upon arriving, we were greeted by a guy named 'Lucky' who was the hotel manager. He was snappily dressed in doctor's scrubs and had us come into the messy 'office,' which is also where his bed is and his dog called home. After 40-60 bad jokes, he checked us in and when we asked about getting a refund on being double-billed, he jotted down Savannah's number and said we'd have to call her directly. (So far, the service should have been our red flag to run). 
+We got to the room, escorted.by Lucky, and just as he was unlocking the door, he proclaimed "you guys really have a great room here,".  The door opens into a third...Ok... If you are short on time and want to cut to the chase, do NOT stay here.Allow me to explain....My girlfriend booked us a room here online. We wanted a cheaper place to stay for a night and figured it would suffice. Plus, she had visited some site which had decent to nice reviews about people's previous stays, so all seemed ok.Prior to arriving she realized her card had been double-billed. So she called to get one charge reversed, and spoke with 'Savannah' who assured her she would have a confirmation email showing proof of refund. By the end of next day  This email never showed up. Savannah never followed up. Refund was never issued. Room was pre-paid. Twice.Upon arriving, we were greeted by a guy named 'Lucky' who was the hotel manager. He was snappily dressed in doctor's scrubs and had us come into the messy 'office,' which is also where his bed is and his dog called home. After 40-60 bad jokes, he checked us in and when we asked about getting a refund on being double-billed, he jotted down Savannah's number and said we'd have to call her directly. (So far, the service should have been our red flag to run). We got to the room, escorted.by Lucky, and just as he was unlocking the door, he proclaimed "you guys really have a great room here,".  The door opens into a third world country. I was surprised the floors weren't dirt. Then I thought...if this is a great room, I'd hate to see the not-great rooms.We could hear the couple next door to us talking through the wall. She really thought her husband ought to get a job. He disagreed.The bed was ancient. There was some type of plastic crunchy barrier under the sheets. When we finally pulled back the sheet and comforter to climb into bed, my girlfriend pulls out a dirty old men's tubesock from under the sheets and says "I hope this is your sock!"   Nope. Maybe Lucky's?We were too tired and it was too late to pound on Lucky's door about this. So next morning we told him and he made a few jokes about us mixing his laundry with our sheets, then gave us a sad face, just as his phone rang and he walked off. Problem solved I guess....The shower curtain had black mildew on it. The caulk in the shower was moldy and gross. Pubes on the sink when we arrived. We are freaked out about possibly having bedbugs or lice at this point...so far no signs but stay tuned...Stay the hell away from this 'boutique' hotel. We were duped...Oh, and it's been 8 days and still no refund on the double-charge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r270832247-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>270832247</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>Unconscionable</t>
+  </si>
+  <si>
+    <t>I wasn't looking for a fancy hotel. Just a simple, clean place to stay for one night. I got double charged a whole week before I checked in and the billing person, Savannah, was negligent about providing proof that the refund had been processed. I had to email and/or call each day and did not get a response until after checkout. The refund was supposed to be processed a week prior. It was a a complete waste of my time to have to be getting her to do her job.The room was dirty (hair and other debris on the floor, especially the bathroom) and there was a dirty, smelly sock in the bedsheets that pretty much proved that they do not change the sheets. The manager, Lucky, uses his humor to divert attention from important issues. It gets old after about the second time.This place is not going to last. I will gladly pay more to stay at a different no-frills hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I wasn't looking for a fancy hotel. Just a simple, clean place to stay for one night. I got double charged a whole week before I checked in and the billing person, Savannah, was negligent about providing proof that the refund had been processed. I had to email and/or call each day and did not get a response until after checkout. The refund was supposed to be processed a week prior. It was a a complete waste of my time to have to be getting her to do her job.The room was dirty (hair and other debris on the floor, especially the bathroom) and there was a dirty, smelly sock in the bedsheets that pretty much proved that they do not change the sheets. The manager, Lucky, uses his humor to divert attention from important issues. It gets old after about the second time.This place is not going to last. I will gladly pay more to stay at a different no-frills hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r260401459-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>260401459</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>What are you people complaining about?</t>
+  </si>
+  <si>
+    <t>I would like to begin by saying that Oceana Boutique was the second hotel we stayed at in San Clemente in two days...When we arrived to check in at 1:00 in the morning, we were greeted by the kindest, most understanding and accomodating manager who did not hesitate to check us in right away, despite the mixup with our reservations on Booking.com. Even though it was terribly early in the morning, and we didn't call ahead... the Manager had no problem finding us a room available at the exact same price that we were quoted online. Once all of our paperwork was completed, the Manager escorted us to our room upstairs and made sure that we had everything that we needed for our stay.
+As soon as we stepped in the room, it was like a breath of fresh air compared to the fleabag motel we had just left down the road...The room was bright and airy with a refrigerator and a microwave, as well as a TV and a desk! What a relief, considering we do a lot of work on the road...
+There was ample storage provided for things like clothes and shoes, excellent water pressure in the shower, and the towels were CLEAN, FLUFFY, AND FULL SIZE! The bed was extremely comfortable, clean sheets, comforter and pillow cases. Medicine cabinet in the bathroom, and complimentary makeup remover wipes...
+Needless to say, I was completely satisfied with my...I would like to begin by saying that Oceana Boutique was the second hotel we stayed at in San Clemente in two days...When we arrived to check in at 1:00 in the morning, we were greeted by the kindest, most understanding and accomodating manager who did not hesitate to check us in right away, despite the mixup with our reservations on Booking.com. Even though it was terribly early in the morning, and we didn't call ahead... the Manager had no problem finding us a room available at the exact same price that we were quoted online. Once all of our paperwork was completed, the Manager escorted us to our room upstairs and made sure that we had everything that we needed for our stay.As soon as we stepped in the room, it was like a breath of fresh air compared to the fleabag motel we had just left down the road...The room was bright and airy with a refrigerator and a microwave, as well as a TV and a desk! What a relief, considering we do a lot of work on the road...There was ample storage provided for things like clothes and shoes, excellent water pressure in the shower, and the towels were CLEAN, FLUFFY, AND FULL SIZE! The bed was extremely comfortable, clean sheets, comforter and pillow cases. Medicine cabinet in the bathroom, and complimentary makeup remover wipes...Needless to say, I was completely satisfied with my two day stay at Oceana Boutique, and I will gladly return in the future, simply because of the pleasant experience with the management and the amenities.HONESTLY...Look around San Clemente, and you won't find a more reasonable deal for a clean and quiet room. This truly is the place to be.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>I would like to begin by saying that Oceana Boutique was the second hotel we stayed at in San Clemente in two days...When we arrived to check in at 1:00 in the morning, we were greeted by the kindest, most understanding and accomodating manager who did not hesitate to check us in right away, despite the mixup with our reservations on Booking.com. Even though it was terribly early in the morning, and we didn't call ahead... the Manager had no problem finding us a room available at the exact same price that we were quoted online. Once all of our paperwork was completed, the Manager escorted us to our room upstairs and made sure that we had everything that we needed for our stay.
+As soon as we stepped in the room, it was like a breath of fresh air compared to the fleabag motel we had just left down the road...The room was bright and airy with a refrigerator and a microwave, as well as a TV and a desk! What a relief, considering we do a lot of work on the road...
+There was ample storage provided for things like clothes and shoes, excellent water pressure in the shower, and the towels were CLEAN, FLUFFY, AND FULL SIZE! The bed was extremely comfortable, clean sheets, comforter and pillow cases. Medicine cabinet in the bathroom, and complimentary makeup remover wipes...
+Needless to say, I was completely satisfied with my...I would like to begin by saying that Oceana Boutique was the second hotel we stayed at in San Clemente in two days...When we arrived to check in at 1:00 in the morning, we were greeted by the kindest, most understanding and accomodating manager who did not hesitate to check us in right away, despite the mixup with our reservations on Booking.com. Even though it was terribly early in the morning, and we didn't call ahead... the Manager had no problem finding us a room available at the exact same price that we were quoted online. Once all of our paperwork was completed, the Manager escorted us to our room upstairs and made sure that we had everything that we needed for our stay.As soon as we stepped in the room, it was like a breath of fresh air compared to the fleabag motel we had just left down the road...The room was bright and airy with a refrigerator and a microwave, as well as a TV and a desk! What a relief, considering we do a lot of work on the road...There was ample storage provided for things like clothes and shoes, excellent water pressure in the shower, and the towels were CLEAN, FLUFFY, AND FULL SIZE! The bed was extremely comfortable, clean sheets, comforter and pillow cases. Medicine cabinet in the bathroom, and complimentary makeup remover wipes...Needless to say, I was completely satisfied with my two day stay at Oceana Boutique, and I will gladly return in the future, simply because of the pleasant experience with the management and the amenities.HONESTLY...Look around San Clemente, and you won't find a more reasonable deal for a clean and quiet room. This truly is the place to be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r241660643-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>241660643</t>
+  </si>
+  <si>
+    <t>11/26/2014</t>
+  </si>
+  <si>
+    <t>Run away as fast as you can!!</t>
+  </si>
+  <si>
+    <t>They put me up in their dirty dumpy motel. Blood on pillowcases, pubic hair left in shower, inch of dirt under everything and the ceiling fan. Felt like I was going to bring home things I did not want. They lie and steal- do not go here!! Promised a refund that of course never happened. Going to push to close their doors.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r229228499-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>229228499</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>EEEEKKKKK, This place is gross!</t>
+  </si>
+  <si>
+    <t>The "manager" was dirty and sweaty.  The "office" was full of bags of dirty linens and reeked of dry cat food.  The manager asked if we wanted to see the room before we checked in ....  I was supposed to be the one to sleep on the sofa bed ... I would not SIT on the couch, much less sleep on it!  The refrigerator reeked of fish, which the manager said was him, because he had a tuna sandwich for lunch!  HA!  I didn't even go into the bathroom, as I was chased out the front door by the smell!  The pictures on the websites are VERY deceiving!  Do Not Go THere!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>The "manager" was dirty and sweaty.  The "office" was full of bags of dirty linens and reeked of dry cat food.  The manager asked if we wanted to see the room before we checked in ....  I was supposed to be the one to sleep on the sofa bed ... I would not SIT on the couch, much less sleep on it!  The refrigerator reeked of fish, which the manager said was him, because he had a tuna sandwich for lunch!  HA!  I didn't even go into the bathroom, as I was chased out the front door by the smell!  The pictures on the websites are VERY deceiving!  Do Not Go THere!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r221477771-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>221477771</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No AC in the summer! Couldn't sleep during the night! People having loud sex next door  </t>
+  </si>
+  <si>
+    <t>hate to write such a bad review because the front desk guy Lucky was nice. But it was just not the most ideal place to beFirst. Let me say this to you. THIS PLACE HAS NO AC!  Yes you heard me right. I was NOT warned about this. No AC in the summer time in California. How is this even possible?  If I knew about this,  I would have NEVER book a night at this place. And for the price of $150 a night, no AC? ! Really?! We were in the town for a friend's wedding. After returning from the wedding, me and fiancee were trying to sleep, only it was too damn hot! I was tossing and turning the whole night not able to fall asleep!  Even with the windows open. Oh and drumroll,  next door started to have loud sex! It was the worst night ever! And my guess this is a party town?  People were loud and rowdy all night outside. Was I back in Manhattan? ! Oh and we saw a cockroache ran across the bathroom floor. And the bathroom window had no curtain or blinds so you are pretty much exposed when you shower. And what flat screen TV? We had a super old and bulky tv!I'm sorry but it was even worse than the ghetto hotel i stayed in. No AC in the summer is just not right. Be warned.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>hate to write such a bad review because the front desk guy Lucky was nice. But it was just not the most ideal place to beFirst. Let me say this to you. THIS PLACE HAS NO AC!  Yes you heard me right. I was NOT warned about this. No AC in the summer time in California. How is this even possible?  If I knew about this,  I would have NEVER book a night at this place. And for the price of $150 a night, no AC? ! Really?! We were in the town for a friend's wedding. After returning from the wedding, me and fiancee were trying to sleep, only it was too damn hot! I was tossing and turning the whole night not able to fall asleep!  Even with the windows open. Oh and drumroll,  next door started to have loud sex! It was the worst night ever! And my guess this is a party town?  People were loud and rowdy all night outside. Was I back in Manhattan? ! Oh and we saw a cockroache ran across the bathroom floor. And the bathroom window had no curtain or blinds so you are pretty much exposed when you shower. And what flat screen TV? We had a super old and bulky tv!I'm sorry but it was even worse than the ghetto hotel i stayed in. No AC in the summer is just not right. Be warned.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r217161897-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>217161897</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>Horrible place to stay</t>
+  </si>
+  <si>
+    <t>WE stayed 5 nights there.What a mistake, no Room cleaning during this period, no toilet paper added, same linens during the entire stay. Wi-fi working sometimes Only. And hot water coming And going...Would  not recommend this place to anyone.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r200897554-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>200897554</t>
+  </si>
+  <si>
+    <t>04/13/2014</t>
+  </si>
+  <si>
+    <t>This place is crap!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tweekers. Permanent tweeker residents all night making noise. Do not stay below room 11. Loud apartments across the street banging Banda music all night. Very to stay at the roadway or somewhere else. Horrible. </t>
   </si>
 </sst>
 </file>
@@ -648,6 +1215,1582 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>112</v>
+      </c>
+      <c r="X11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>112</v>
+      </c>
+      <c r="X12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>112</v>
+      </c>
+      <c r="X13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>135</v>
+      </c>
+      <c r="O16" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>152</v>
+      </c>
+      <c r="O19" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>169</v>
+      </c>
+      <c r="O20" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" t="s">
+        <v>175</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>169</v>
+      </c>
+      <c r="O21" t="s">
+        <v>82</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" t="s">
+        <v>181</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>182</v>
+      </c>
+      <c r="O22" t="s">
+        <v>74</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O23" t="s">
+        <v>74</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s">
+        <v>194</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>195</v>
+      </c>
+      <c r="O24" t="s">
+        <v>121</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>198</v>
+      </c>
+      <c r="J25" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" t="s">
+        <v>200</v>
+      </c>
+      <c r="L25" t="s">
+        <v>201</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>202</v>
+      </c>
+      <c r="O25" t="s">
+        <v>82</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>204</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>205</v>
+      </c>
+      <c r="J26" t="s">
+        <v>206</v>
+      </c>
+      <c r="K26" t="s">
+        <v>207</v>
+      </c>
+      <c r="L26" t="s">
+        <v>208</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>209</v>
+      </c>
+      <c r="O26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>211</v>
+      </c>
+      <c r="J27" t="s">
+        <v>212</v>
+      </c>
+      <c r="K27" t="s">
+        <v>213</v>
+      </c>
+      <c r="L27" t="s">
+        <v>214</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_569.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_569.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="241">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>JoeA43</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>jedum1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r559680666-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
   </si>
   <si>
@@ -199,6 +205,9 @@
   </si>
   <si>
     <t>I've stayed in budget hotels all over the world.  News flash, you get what you pay for. I'm happy staying in a cheap room with a lack of amenities.  And believe me this place definitely lacked basic amenities.  No hangers in the closet.  A coffee maker with no coffee.  No drawers for clothing.  All good though.  I expected it to be pretty lackluster.  What I didn't expect was to be locked out of my room on my second night, because the electronic lock was not recognizing my key.  At 11:30 in the evening this isn't something you want to deal with.  I left a message at the only number listed for the hotel and sent an email requesting assistance.  After waiting 45 minutes with no response, I drove to a friends house about 30 miles away and slept on his couch.  The next day I drove back to the hotel and requested a refund for the night I was locked out, and canceled the room I had paid for that night.  They told me they would refund me for 2 of my 3 night stay. Later that evening I received an email stating that they had refunded me for 1 night.  The night that I canceled.  No mention of the night I was locked out of my room.  Emailed them and never heard anything back.STAY AWAY FROM THIS PLACE!!!More</t>
+  </si>
+  <si>
+    <t>MntShastaDragon</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r544661000-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
@@ -240,6 +249,9 @@
 You are gonna love this, I met the person with the Hacked phone and computer because he locked himself out of the room...Motel sign clearly visible on a main street but blocks away from the motel.Opened my rooms door, hit the light switch got nothing. Yes there were several lights in my room but none were easy to turn on. Luckily the bathroom light switch worked I had some light. I was fortunate that there was still someone in the office to help me turn the lights on. (office closes at 7pm)Nice heater thermostat on the wall BUT it didn’t turn on the heater in the middle of the room.Very big flat screen tv., frig. &amp; microwave in the room. yippie! best thing about the room.Rustic, I guess They're trying.Coffee, you like coffee well NO coffee service here in the room or closed office.Password given for Internet connection but it would NOT work.  I found out later I was lucky it didn’t work; Ran into another person staying at the inn he told me his computer and phone were seriously HACKED using the hotels Internet connection.The room is reasonably clean except the waded up hand towel in the back of the shelf in the bathroom. Probably to high for the cleaning person to see.If you're picky or used to services most motels or hotels commonly provide you won't like staying here.You are gonna love this, I met the person with the Hacked phone and computer because he locked himself out of the room at 8 am and there is NO staff on site until 11am, I let him in my room for awhile but had to leave and put this stocking footed person out. You call their number posted and they tell you the office hours. What a joke of a motel, one has to be disparate to stay here.More</t>
   </si>
   <si>
+    <t>Brandon W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r498891681-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
   </si>
   <si>
@@ -282,6 +294,9 @@
 I cannot believe the service I received from this establishment. The inconvenience that this has caused for my family and I...I am absolutely disgusted and extremely disappointed by this establishment. I can see why their rating is low on here.On the 3rd of July we arrived at the hotel and we had booked our hotel on the May 23rd already so they had more than enough advance booking for me and my family. I booked a 2 bedroom as there were 5 of us traveling. I had booked through Agoda website and my booking confirmation and receipt states I had booked a 2 bedroom executive suite. I arrived at the hotel to be told they had booked my room with a single bed (queen) - of course we cannot stay in a 1 bedroom. As it's 4th of July weekend they were fully booked and told us there is nothing we can do for you.They tried to blame Agoda for this mistake that they have made... It seems they did not read their emails from agoda and it had become our problem. All Agoda's documentation and emails i have states the correct room details. I would assume our 2 bedroom was used for someone else and now my family and I had to find alternative plans on the busiest weekend of the year.. We had just driven all the way from yosemite and of course were tired. I cannot believe the service I received from this establishment. The inconvenience that this has caused for my family and I is outrages and absolutely unacceptable. The fact that they did not even try to assist us in anyway shows me what this hotel stands for and how they value it's customers..I will never be visiting this establishment and I urge you not to either.More</t>
   </si>
   <si>
+    <t>Butch H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r495664944-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
   </si>
   <si>
@@ -303,6 +318,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Terry30000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r493399917-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
   </si>
   <si>
@@ -318,6 +336,9 @@
     <t>For the price, this was a great place to stay. Walking distance to everything and everyone was very accommodating.  We could not get anywhere near this location for under $400 a night!  Would definitely stay there again. If your going to spend a lot of time in your room, it may not be for you, we never even turned on the tv!</t>
   </si>
   <si>
+    <t>Brandan E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r394894010-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
   </si>
   <si>
@@ -339,6 +360,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Justin M S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r392098544-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
   </si>
   <si>
@@ -354,6 +378,9 @@
     <t>Worst experience I have ever had. The office was never open during office hours, the front desk couldn't do anything, she wouldn't even give me a receipt upon check in. Kept referring me to corporate office, who were also unreachable. Rooms were filthy, no air flow, ended up having to dispute the charge through my bank after trying 5 days to talk to someone at the hotel.</t>
   </si>
   <si>
+    <t>LAtravelman78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r364758493-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
   </si>
   <si>
@@ -372,6 +399,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>robin_easley</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r345842436-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
   </si>
   <si>
@@ -399,6 +429,9 @@
     <t>They close at 9 pm, arrived 5 minutes before and had to beg them to let us get a room. Stand up shower, ok bed, no sign of bugs! Hard tile floors, ok for getting a nights sleep. Not luxury by any means, kitchenette was nice, some utensils and skillet includedMore</t>
   </si>
   <si>
+    <t>Aerovergalineas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r331430895-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
   </si>
   <si>
@@ -423,6 +456,9 @@
     <t>Saw this on booking.com  The night I was there: $62A very bare bones place. But clean &amp; comfortable. No frills. No phone, no in rooom coffee. no vending machines. But more personalized recognition. The managers acknowledged me by name., and very genuine about it. The more longer-term rentals with Kitchenettes/ living rooms, I'm sure "have more to offer" as this is more of a extended stay/beach vacation rental, than lets say a Motel. I had a standard room (#104)  very basic, big screen TV, private bathroom.More</t>
   </si>
   <si>
+    <t>Courtney N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r328811664-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
   </si>
   <si>
@@ -444,6 +480,9 @@
     <t>I booked with this hotel on booking.com for 5 nights. I couldn't make it and canceled well within 24 hours. The hotel manager was MIA. I got multiple numbers from the "manager of the location" but not someone who could do refunds. I had to disputed through MasterCard. Worst customer service ever. Don't stay here !More</t>
   </si>
   <si>
+    <t>WestCoastFireGal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r306517912-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
   </si>
   <si>
@@ -462,6 +501,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Jessica '</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r305945552-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
   </si>
   <si>
@@ -477,6 +519,9 @@
     <t>I cancelled my reservation within 7 minutes through booking.com only to have Oceana charge my card as a no call no show. They are shady business to say the least. Owner can only be contacted via email, no customer service ect. Luckily Booking.com provided me with all of the documentation that my reservation had in fact been cancelled and are resolving the issue through Visa. Beware of this business!!</t>
   </si>
   <si>
+    <t>sarah t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r301856058-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
   </si>
   <si>
@@ -495,6 +540,9 @@
     <t>I had unauthorized charges to my card. I was given the owners phone number to resolve this. She does not answer calls. I was told to text her. SERIOUSLY, what professional business owner handles matters through texting?! I sent a text telling her my problem. I was told I would be receiving a phone call shortly. That call never came. The charge was nearly 1000.00$. After reading the reviews of this place it became apparent the owner does not act in a professional manner. She is very combative in her response to the problems the people post. Her customer service is terrible. She does not try to resolve problems, just gets nasty and rude. She really needs a  course in public relations. Lady this is a world of internet. People base their decisions to stay on the reviews they read. You may blow off these people and say you don't care about their satisfaction because you will fill up eventually. At some point you wont. You are only going to have the low life losers stay. Good riddance.More</t>
   </si>
   <si>
+    <t>Candace P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r295383494-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
   </si>
   <si>
@@ -513,6 +561,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Tina B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r289329782-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
   </si>
   <si>
@@ -526,6 +577,9 @@
   </si>
   <si>
     <t>Weekend get away to San Clemente by metrolink. Took Metro down to Oceanside than back up to San Clemente. What a hike from the pier to the hotel, But was quaint and old but we got the executive suite which was large like a 1 bedroom apartment with a full kitchen. Lucky was very nice and we were walking distance to the shops which was nice. Just be prepared for hike up the hill or take a taxi. Just remember OLD but clean and quite and peace had patio set in the shade was very nice.</t>
+  </si>
+  <si>
+    <t>Keith L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r288293578-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
@@ -546,6 +600,9 @@
   <si>
     <t>In a word, a dump. If you like dirty, smelly rooms, other people’s garbage and dilapidated furniture, look no further! 
 This place bore little resemblance to the photos or description. Our first impression was the stale, musty smell of old upholstery. Floors were dirty with pet hair, which is odd for a place that supposedly doesn’t allow pets. The furniture was old, smelly and stained, making you want to get a tetanus shot from just sitting on it. I filled a trash bag with old food left in the refrigerator and there was mold growing in the shower and shower curtain. The description stated there was a sofa bed and futon, but there was no futon. We were instead given an air mattress that looked as if it were Korean war surplus, and of course the air leaked out in the middle of the night, had to make a bed out of nasty sofa cushions for my girlfriend’s daughter. We left after the first night even though we booked (and paid for) two nights. The “concierge” was a nice enough fellow and to his credit, his incompetence seemed more a result of cluelessness than ill will or apathy. Once we received the key to the room, however, he managed to make himself scarce. Messages and phone calls to the owner went unanswered. I’ve stayed in places in the third world that were much cleaner and nicer. This place needs a...In a word, a dump. If you like dirty, smelly rooms, other people’s garbage and dilapidated furniture, look no further! This place bore little resemblance to the photos or description. Our first impression was the stale, musty smell of old upholstery. Floors were dirty with pet hair, which is odd for a place that supposedly doesn’t allow pets. The furniture was old, smelly and stained, making you want to get a tetanus shot from just sitting on it. I filled a trash bag with old food left in the refrigerator and there was mold growing in the shower and shower curtain. The description stated there was a sofa bed and futon, but there was no futon. We were instead given an air mattress that looked as if it were Korean war surplus, and of course the air leaked out in the middle of the night, had to make a bed out of nasty sofa cushions for my girlfriend’s daughter. We left after the first night even though we booked (and paid for) two nights. The “concierge” was a nice enough fellow and to his credit, his incompetence seemed more a result of cluelessness than ill will or apathy. Once we received the key to the room, however, he managed to make himself scarce. Messages and phone calls to the owner went unanswered. I’ve stayed in places in the third world that were much cleaner and nicer. This place needs a lot of money and an owner that cares about it in order to bring it up to standard.More</t>
+  </si>
+  <si>
+    <t>Doug H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r270960352-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
@@ -579,6 +636,9 @@
 We got to the room, escorted.by Lucky, and just as he was unlocking the door, he proclaimed "you guys really have a great room here,".  The door opens into a third...Ok... If you are short on time and want to cut to the chase, do NOT stay here.Allow me to explain....My girlfriend booked us a room here online. We wanted a cheaper place to stay for a night and figured it would suffice. Plus, she had visited some site which had decent to nice reviews about people's previous stays, so all seemed ok.Prior to arriving she realized her card had been double-billed. So she called to get one charge reversed, and spoke with 'Savannah' who assured her she would have a confirmation email showing proof of refund. By the end of next day  This email never showed up. Savannah never followed up. Refund was never issued. Room was pre-paid. Twice.Upon arriving, we were greeted by a guy named 'Lucky' who was the hotel manager. He was snappily dressed in doctor's scrubs and had us come into the messy 'office,' which is also where his bed is and his dog called home. After 40-60 bad jokes, he checked us in and when we asked about getting a refund on being double-billed, he jotted down Savannah's number and said we'd have to call her directly. (So far, the service should have been our red flag to run). We got to the room, escorted.by Lucky, and just as he was unlocking the door, he proclaimed "you guys really have a great room here,".  The door opens into a third world country. I was surprised the floors weren't dirt. Then I thought...if this is a great room, I'd hate to see the not-great rooms.We could hear the couple next door to us talking through the wall. She really thought her husband ought to get a job. He disagreed.The bed was ancient. There was some type of plastic crunchy barrier under the sheets. When we finally pulled back the sheet and comforter to climb into bed, my girlfriend pulls out a dirty old men's tubesock from under the sheets and says "I hope this is your sock!"   Nope. Maybe Lucky's?We were too tired and it was too late to pound on Lucky's door about this. So next morning we told him and he made a few jokes about us mixing his laundry with our sheets, then gave us a sad face, just as his phone rang and he walked off. Problem solved I guess....The shower curtain had black mildew on it. The caulk in the shower was moldy and gross. Pubes on the sink when we arrived. We are freaked out about possibly having bedbugs or lice at this point...so far no signs but stay tuned...Stay the hell away from this 'boutique' hotel. We were duped...Oh, and it's been 8 days and still no refund on the double-charge.More</t>
   </si>
   <si>
+    <t>felizgirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r270832247-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
   </si>
   <si>
@@ -595,6 +655,9 @@
   </si>
   <si>
     <t>I wasn't looking for a fancy hotel. Just a simple, clean place to stay for one night. I got double charged a whole week before I checked in and the billing person, Savannah, was negligent about providing proof that the refund had been processed. I had to email and/or call each day and did not get a response until after checkout. The refund was supposed to be processed a week prior. It was a a complete waste of my time to have to be getting her to do her job.The room was dirty (hair and other debris on the floor, especially the bathroom) and there was a dirty, smelly sock in the bedsheets that pretty much proved that they do not change the sheets. The manager, Lucky, uses his humor to divert attention from important issues. It gets old after about the second time.This place is not going to last. I will gladly pay more to stay at a different no-frills hotel.More</t>
+  </si>
+  <si>
+    <t>Carley J</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r260401459-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
@@ -624,6 +687,9 @@
 Needless to say, I was completely satisfied with my...I would like to begin by saying that Oceana Boutique was the second hotel we stayed at in San Clemente in two days...When we arrived to check in at 1:00 in the morning, we were greeted by the kindest, most understanding and accomodating manager who did not hesitate to check us in right away, despite the mixup with our reservations on Booking.com. Even though it was terribly early in the morning, and we didn't call ahead... the Manager had no problem finding us a room available at the exact same price that we were quoted online. Once all of our paperwork was completed, the Manager escorted us to our room upstairs and made sure that we had everything that we needed for our stay.As soon as we stepped in the room, it was like a breath of fresh air compared to the fleabag motel we had just left down the road...The room was bright and airy with a refrigerator and a microwave, as well as a TV and a desk! What a relief, considering we do a lot of work on the road...There was ample storage provided for things like clothes and shoes, excellent water pressure in the shower, and the towels were CLEAN, FLUFFY, AND FULL SIZE! The bed was extremely comfortable, clean sheets, comforter and pillow cases. Medicine cabinet in the bathroom, and complimentary makeup remover wipes...Needless to say, I was completely satisfied with my two day stay at Oceana Boutique, and I will gladly return in the future, simply because of the pleasant experience with the management and the amenities.HONESTLY...Look around San Clemente, and you won't find a more reasonable deal for a clean and quiet room. This truly is the place to be.More</t>
   </si>
   <si>
+    <t>stefanie p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r241660643-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
   </si>
   <si>
@@ -642,6 +708,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Cher L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r229228499-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
   </si>
   <si>
@@ -663,6 +732,9 @@
     <t>The "manager" was dirty and sweaty.  The "office" was full of bags of dirty linens and reeked of dry cat food.  The manager asked if we wanted to see the room before we checked in ....  I was supposed to be the one to sleep on the sofa bed ... I would not SIT on the couch, much less sleep on it!  The refrigerator reeked of fish, which the manager said was him, because he had a tuna sandwich for lunch!  HA!  I didn't even go into the bathroom, as I was chased out the front door by the smell!  The pictures on the websites are VERY deceiving!  Do Not Go THere!!!More</t>
   </si>
   <si>
+    <t>Looly T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r221477771-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
   </si>
   <si>
@@ -684,6 +756,9 @@
     <t>hate to write such a bad review because the front desk guy Lucky was nice. But it was just not the most ideal place to beFirst. Let me say this to you. THIS PLACE HAS NO AC!  Yes you heard me right. I was NOT warned about this. No AC in the summer time in California. How is this even possible?  If I knew about this,  I would have NEVER book a night at this place. And for the price of $150 a night, no AC? ! Really?! We were in the town for a friend's wedding. After returning from the wedding, me and fiancee were trying to sleep, only it was too damn hot! I was tossing and turning the whole night not able to fall asleep!  Even with the windows open. Oh and drumroll,  next door started to have loud sex! It was the worst night ever! And my guess this is a party town?  People were loud and rowdy all night outside. Was I back in Manhattan? ! Oh and we saw a cockroache ran across the bathroom floor. And the bathroom window had no curtain or blinds so you are pretty much exposed when you shower. And what flat screen TV? We had a super old and bulky tv!I'm sorry but it was even worse than the ghetto hotel i stayed in. No AC in the summer is just not right. Be warned.More</t>
   </si>
   <si>
+    <t>elisabeth98713</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r217161897-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
   </si>
   <si>
@@ -700,6 +775,9 @@
   </si>
   <si>
     <t>July 2014</t>
+  </si>
+  <si>
+    <t>Familyandfriendsca</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d5002973-r200897554-Oceana_Boutique_Hotel-San_Clemente_California.html</t>
@@ -1219,43 +1297,47 @@
       <c r="A2" t="n">
         <v>65820</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1269,50 +1351,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65820</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -1332,50 +1418,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65820</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -1395,50 +1485,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65820</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1456,50 +1550,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65820</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1513,50 +1611,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65820</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1576,50 +1678,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65820</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1633,50 +1739,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65820</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -1696,50 +1806,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65820</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1753,50 +1867,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65820</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1808,56 +1926,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="X11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65820</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -1875,56 +1997,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="X12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65820</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="O13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1936,56 +2062,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="X13" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="Y13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65820</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1999,50 +2129,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65820</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>149</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="K15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2056,50 +2190,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65820</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -2117,50 +2255,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65820</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -2180,41 +2322,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65820</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
@@ -2233,50 +2379,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65820</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2294,50 +2444,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65820</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="O20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -2355,50 +2509,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65820</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>190</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="J21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="O21" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -2418,50 +2576,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>65820</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>197</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="J22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="K22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="O22" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -2481,50 +2643,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65820</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>205</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="J23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="K23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="O23" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -2544,50 +2710,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>65820</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>212</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="J24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="K24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="O24" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2605,50 +2775,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65820</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>220</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="J25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="K25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -2662,50 +2836,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65820</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>228</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="J26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="O26" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -2725,41 +2903,45 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>65820</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>235</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="J27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="K27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
@@ -2788,7 +2970,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
